--- a/InputFiles/C3DC/TC02_C3DC_phs002504_Race-White.xlsx
+++ b/InputFiles/C3DC/TC02_C3DC_phs002504_Race-White.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/07-15-2025/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF49D2-3064-7840-BFAD-9478FF54BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E2296-7EBF-604B-AFB1-66E614016DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -84,17 +84,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
    std.dbgap_accession = 'phs002504' AND prt.race = 'White';</t>
   </si>
@@ -105,17 +105,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002504' AND prt.race = 'White'</t>
   </si>
@@ -128,17 +128,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002504' AND prt.race = 'White'
 ORDER BY 
@@ -165,89 +165,19 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002504' AND prt.race = 'White' AND dgn.diagnosis_id IS NOT NULL
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    trr.treatment_response_id AS "Treatment Response Id",
-    trr.response AS "Response",
-    CASE 
-        WHEN trr.age_at_response = -999 THEN 'Not Reported'
-        WHEN trr.age_at_response &gt;= 1000 THEN 
-            substr(trr.age_at_response, 1, length(trr.age_at_response) - 3) || ',' || substr(trr.age_at_response, -3)
-        ELSE 
-            trr.age_at_response 
-    END AS "Age at Response",
-    trr.response_category AS "Response Category",
-    trr.response_system AS "Response System",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs002504' AND prt.race = 'White'
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    srv.survival_id AS "Survival Id",
-    srv.last_known_survival_status AS "Last Known Survival Status",
-    CASE 
-    WHEN srv.age_at_last_known_survival_status = -999 THEN 'Not Reported'
-    WHEN srv.age_at_last_known_survival_status &gt;= 1000 THEN 
-        substr(srv.age_at_last_known_survival_status, 1, length(srv.age_at_last_known_survival_status) - 3) || ',' || substr(srv.age_at_last_known_survival_status, -3)
-    ELSE 
-        srv.age_at_last_known_survival_status 
-END AS "Age at Last Known Survival Status",
-    srv.first_event AS "First Event",
-    srv.cause_of_death AS "Cause of Death",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs002504' AND prt.race = 'White' AND srv.survival_id IS NOT NULL
 ORDER BY 
     prt.participant_id ASC
 LIMIT 100;</t>
@@ -276,19 +206,89 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002504' AND prt.race = 'White' AND trt.treatment_id IS NOT NULL
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    trr.treatment_response_id AS "Treatment Response Id",
+    trr.response AS "Response",
+    CASE 
+        WHEN trr.age_at_response = -999 THEN 'Not Reported'
+        WHEN trr.age_at_response &gt;= 1000 THEN 
+            substr(trr.age_at_response, 1, length(trr.age_at_response) - 3) || ',' || substr(trr.age_at_response, -3)
+        ELSE 
+            trr.age_at_response 
+    END AS "Age at Response",
+    trr.response_category AS "Response Category",
+    trr.response_system AS "Response System",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+WHERE 
+    std.dbgap_accession = 'phs002504' AND prt.race = 'White'
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    srv.survival_id AS "Survival Id",
+    srv.last_known_survival_status AS "Last Known Survival Status",
+    CASE 
+    WHEN srv.age_at_last_known_survival_status = -999 THEN 'Not Reported'
+    WHEN srv.age_at_last_known_survival_status &gt;= 1000 THEN 
+        substr(srv.age_at_last_known_survival_status, 1, length(srv.age_at_last_known_survival_status) - 3) || ',' || substr(srv.age_at_last_known_survival_status, -3)
+    ELSE 
+        srv.age_at_last_known_survival_status 
+END AS "Age at Last Known Survival Status",
+    srv.first_event AS "First Event",
+    srv.cause_of_death AS "Cause of Death",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+WHERE 
+    std.dbgap_accession = 'phs002504' AND prt.race = 'White' AND srv.survival_id IS NOT NULL
 ORDER BY 
     prt.participant_id ASC
 LIMIT 100;</t>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -761,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -770,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
